--- a/hoy/Asignación AMPL.xlsx
+++ b/hoy/Asignación AMPL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\hoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="4">
   <si>
     <t>aserraderos/molinos</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H2" sqref="H2:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -431,8 +431,15 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>IF(B2=1,$B$1,IF(C2=1,$C$1,IF(D2=1,$D$1)))</f>
+        <v>Koala</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -445,8 +452,15 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:H66" si="0">IF(B3=1,$B$1,IF(C3=1,$C$1,IF(D3=1,$D$1)))</f>
+        <v>Koala</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -459,8 +473,15 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -473,8 +494,15 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -487,8 +515,15 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -501,8 +536,15 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -515,8 +557,15 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -529,8 +578,15 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -543,8 +599,15 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -557,8 +620,15 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -571,8 +641,15 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -585,8 +662,15 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -599,8 +683,15 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -613,8 +704,15 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -627,8 +725,15 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -641,8 +746,15 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -655,8 +767,15 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -669,8 +788,15 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -683,8 +809,15 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -697,8 +830,15 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -711,8 +851,15 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -725,8 +872,15 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -739,8 +893,15 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -753,8 +914,15 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -767,8 +935,15 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -781,8 +956,15 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -795,8 +977,15 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -809,8 +998,15 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -823,8 +1019,15 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -837,8 +1040,15 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -851,8 +1061,15 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -865,8 +1082,15 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -879,8 +1103,15 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -893,8 +1124,15 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -907,8 +1145,15 @@
       <c r="D36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -921,8 +1166,15 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -935,8 +1187,15 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -949,8 +1208,15 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -963,8 +1229,15 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -977,8 +1250,15 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -991,8 +1271,15 @@
       <c r="D42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1005,8 +1292,15 @@
       <c r="D43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1019,8 +1313,15 @@
       <c r="D44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1033,8 +1334,15 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1047,8 +1355,15 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1061,8 +1376,15 @@
       <c r="D47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1075,8 +1397,15 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1089,8 +1418,15 @@
       <c r="D49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1103,8 +1439,15 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1117,8 +1460,15 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1131,8 +1481,15 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1145,8 +1502,15 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1159,8 +1523,15 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1173,8 +1544,15 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1187,8 +1565,15 @@
       <c r="D56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1201,8 +1586,15 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1215,8 +1607,15 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1229,8 +1628,15 @@
       <c r="D59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>Koala</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1243,8 +1649,15 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1257,8 +1670,15 @@
       <c r="D61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>Bright</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1271,8 +1691,15 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1285,8 +1712,15 @@
       <c r="D63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>Paper</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1299,8 +1733,15 @@
       <c r="D64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>Bright</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1313,8 +1754,15 @@
       <c r="D65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>Bright</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1327,8 +1775,15 @@
       <c r="D66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>Bright</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1341,8 +1796,15 @@
       <c r="D67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:H101" si="1">IF(B67=1,$B$1,IF(C67=1,$C$1,IF(D67=1,$D$1)))</f>
+        <v>Bright</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1355,8 +1817,15 @@
       <c r="D68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1369,8 +1838,15 @@
       <c r="D69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1383,8 +1859,15 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1397,8 +1880,15 @@
       <c r="D71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1411,8 +1901,15 @@
       <c r="D72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1425,8 +1922,15 @@
       <c r="D73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1439,8 +1943,15 @@
       <c r="D74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1453,8 +1964,15 @@
       <c r="D75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1467,8 +1985,15 @@
       <c r="D76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1481,8 +2006,15 @@
       <c r="D77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1495,8 +2027,15 @@
       <c r="D78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1509,8 +2048,15 @@
       <c r="D79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1523,8 +2069,15 @@
       <c r="D80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1537,8 +2090,15 @@
       <c r="D81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1551,8 +2111,15 @@
       <c r="D82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1565,8 +2132,15 @@
       <c r="D83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1579,8 +2153,15 @@
       <c r="D84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1593,8 +2174,15 @@
       <c r="D85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1607,8 +2195,15 @@
       <c r="D86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1621,8 +2216,15 @@
       <c r="D87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1635,8 +2237,15 @@
       <c r="D88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1649,8 +2258,15 @@
       <c r="D89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1663,8 +2279,15 @@
       <c r="D90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1677,8 +2300,15 @@
       <c r="D91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1691,8 +2321,15 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1705,8 +2342,15 @@
       <c r="D93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1719,8 +2363,15 @@
       <c r="D94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1733,8 +2384,15 @@
       <c r="D95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1747,8 +2405,15 @@
       <c r="D96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1761,8 +2426,15 @@
       <c r="D97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1775,8 +2447,15 @@
       <c r="D98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1789,8 +2468,15 @@
       <c r="D99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>Bright</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1803,8 +2489,15 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1816,6 +2509,13 @@
       </c>
       <c r="D101" s="1">
         <v>1</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>Paper</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
